--- a/Time-Card/HW/ТЕСТИРОВАНИЕ/OCP Files/Mechanical/Mechanical BOM/R4006-F1001-03-MECHANICAL ASSEMBLY BOM.xlsx
+++ b/Time-Card/HW/ТЕСТИРОВАНИЕ/OCP Files/Mechanical/Mechanical BOM/R4006-F1001-03-MECHANICAL ASSEMBLY BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\PTP\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Time-Card\HW\ТЕСТИРОВАНИЕ\OCP Files\Mechanical\Mechanical BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D344B9B-D0E5-4232-8577-56412E468CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="20100" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R4006-F1001-03-BOM" sheetId="4" r:id="rId1"/>
@@ -60,9 +61,6 @@
     <t>ASM,TIMING BOARD,RCB-F9T,8 PINS,MULTI-BAND GNSS W/ SMB ANTENNA CON</t>
   </si>
   <si>
-    <t>Celestica Design Services - Bill oF Material</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -163,12 +161,15 @@
   </si>
   <si>
     <t>SET</t>
+  </si>
+  <si>
+    <t>Bill oF Material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,48 +663,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,69 +981,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="2"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="78.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="1"/>
-    <col min="10" max="10" width="14.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="78.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1050,28 +1049,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1079,31 +1078,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1111,31 +1110,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1143,31 +1142,31 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1175,34 +1174,34 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1210,31 +1209,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1242,31 +1241,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1">
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1274,31 +1273,31 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1306,28 +1305,28 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1335,28 +1334,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1364,25 +1363,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
